--- a/src/pages/word/component/zhangheng.xlsx
+++ b/src/pages/word/component/zhangheng.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\测试\20200815react-app\src\pages\word\component\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65B44EA-7CEB-4BF7-AC39-A02FFAD5BC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C641C817-B708-48F1-B89C-F79A3A2C200E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>张衡</author>
+  </authors>
+  <commentList>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{DF4A8AAD-8F01-4B75-88AE-E935E4E2466E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>张衡:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="14">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>河南省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,12 +107,23 @@
     <t>户籍地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>浙江省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +137,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -397,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -427,16 +486,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -453,7 +512,570 @@
         <v>123456789</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>123</v>
+      </c>
+      <c r="G2">
+        <v>456</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>123456789</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>123</v>
+      </c>
+      <c r="G3">
+        <v>456</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>123456789</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>123</v>
+      </c>
+      <c r="G4">
+        <v>456</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>123456789</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>123</v>
+      </c>
+      <c r="G5">
+        <v>456</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>123456789</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>123</v>
+      </c>
+      <c r="G6">
+        <v>456</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>123456789</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>123</v>
+      </c>
+      <c r="G7">
+        <v>456</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>123456789</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>123</v>
+      </c>
+      <c r="G8">
+        <v>456</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>123456789</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>123</v>
+      </c>
+      <c r="G9">
+        <v>456</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>123456789</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>123</v>
+      </c>
+      <c r="G10">
+        <v>456</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>123456789</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>123</v>
+      </c>
+      <c r="G11">
+        <v>456</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>123456789</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>123</v>
+      </c>
+      <c r="G12">
+        <v>456</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>123456789</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>123</v>
+      </c>
+      <c r="G13">
+        <v>456</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>123456789</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>123</v>
+      </c>
+      <c r="G14">
+        <v>456</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>123456789</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>123</v>
+      </c>
+      <c r="G15">
+        <v>456</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>123456789</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>123</v>
+      </c>
+      <c r="G16">
+        <v>456</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>123456789</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>123</v>
+      </c>
+      <c r="G17">
+        <v>456</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>123456789</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>123</v>
+      </c>
+      <c r="G18">
+        <v>456</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>123456789</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>123</v>
+      </c>
+      <c r="G19">
+        <v>456</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>123456789</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>123</v>
+      </c>
+      <c r="G20">
+        <v>456</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>123456789</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>123</v>
+      </c>
+      <c r="G21">
+        <v>456</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -461,4 +1083,630 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF053BFA-56CD-4D9D-947F-3B20EE067AE6}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>123456789</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>123</v>
+      </c>
+      <c r="G2">
+        <v>456</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>123456789</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>123</v>
+      </c>
+      <c r="G3">
+        <v>456</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>123456789</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>123</v>
+      </c>
+      <c r="G4">
+        <v>456</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>123456789</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>123</v>
+      </c>
+      <c r="G5">
+        <v>456</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>123456789</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>123</v>
+      </c>
+      <c r="G6">
+        <v>456</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>123456789</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>123</v>
+      </c>
+      <c r="G7">
+        <v>456</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>123456789</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>123</v>
+      </c>
+      <c r="G8">
+        <v>456</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>123456789</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>123</v>
+      </c>
+      <c r="G9">
+        <v>456</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>123456789</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>123</v>
+      </c>
+      <c r="G10">
+        <v>456</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>123456789</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>123</v>
+      </c>
+      <c r="G11">
+        <v>456</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>123456789</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>123</v>
+      </c>
+      <c r="G12">
+        <v>456</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>123456789</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>123</v>
+      </c>
+      <c r="G13">
+        <v>456</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>123456789</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>123</v>
+      </c>
+      <c r="G14">
+        <v>456</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>123456789</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>123</v>
+      </c>
+      <c r="G15">
+        <v>456</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>123456789</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>123</v>
+      </c>
+      <c r="G16">
+        <v>456</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>123456789</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>123</v>
+      </c>
+      <c r="G17">
+        <v>456</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>123456789</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>123</v>
+      </c>
+      <c r="G18">
+        <v>456</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>123456789</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>123</v>
+      </c>
+      <c r="G19">
+        <v>456</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>123456789</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>123</v>
+      </c>
+      <c r="G20">
+        <v>456</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>123456789</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>123</v>
+      </c>
+      <c r="G21">
+        <v>456</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/pages/word/component/zhangheng.xlsx
+++ b/src/pages/word/component/zhangheng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\测试\20200815react-app\src\pages\word\component\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C641C817-B708-48F1-B89C-F79A3A2C200E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A261E59C-8B57-4FAB-B9FC-AF386FA17C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="16">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹅鹅鹅饿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的点点滴滴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,8 +182,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1087,13 +1098,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF053BFA-56CD-4D9D-947F-3B20EE067AE6}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1704,7 +1718,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
